--- a/Kampala_Resturants.xlsx
+++ b/Kampala_Resturants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -389,6 +389,75 @@
   </si>
   <si>
     <t>Kololo Hill Drive, Kampala</t>
+  </si>
+  <si>
+    <t>Hunza Darbar</t>
+  </si>
+  <si>
+    <t>Windsor Loop Road, Kampala</t>
+  </si>
+  <si>
+    <t>Kati Kati Restaurant</t>
+  </si>
+  <si>
+    <t>Lugogo By-Pass, Kampala</t>
+  </si>
+  <si>
+    <t>Akafo Restaurant</t>
+  </si>
+  <si>
+    <t>The Lambertini Bar and Restaurant</t>
+  </si>
+  <si>
+    <t>Located at the Bell Building, UMA Show Ground-Lugogo, Kampala</t>
+  </si>
+  <si>
+    <t>Mr Tasty</t>
+  </si>
+  <si>
+    <t>Semawata Road, Kampala</t>
+  </si>
+  <si>
+    <t>Kitty's fruit and salads parlour</t>
+  </si>
+  <si>
+    <t>Room no. s-6 MM plaza after bank of baroda Luwum Street, Kampala</t>
+  </si>
+  <si>
+    <t>Ciao Ciao Restaurant &amp; Beauty Parlour</t>
+  </si>
+  <si>
+    <t>JunJu Road next to equity bank wandegeya Buganda Road, Kampala</t>
+  </si>
+  <si>
+    <t>kaiza magic links</t>
+  </si>
+  <si>
+    <t>plot 56/60 kampala road Ambassador House @nd Floor Entrance A, room ASF no 03 Kampala Road, Kampala</t>
+  </si>
+  <si>
+    <t>Balady Restaurant Kampala</t>
+  </si>
+  <si>
+    <t>25 Prince Charles Drive, Kampala</t>
+  </si>
+  <si>
+    <t>Bamboo Terrace</t>
+  </si>
+  <si>
+    <t>Yusuf Lule Road, Kampala</t>
+  </si>
+  <si>
+    <t>Green wich motel, bar and restuarant</t>
+  </si>
+  <si>
+    <t>Kauga, Mukono mainstreet Fourth Street, Kampala</t>
+  </si>
+  <si>
+    <t>Quatresyte Concept</t>
+  </si>
+  <si>
+    <t>7, Oluwamorokun Street, Off Post Office Road, Mushin Kampala Road, Kampala</t>
   </si>
 </sst>
 </file>
@@ -815,16 +884,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1167,7 +1235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1227,7 +1295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1787,7 +1855,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -2165,6 +2233,246 @@
       </c>
       <c r="F67" s="2" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>52</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.3371654</v>
+      </c>
+      <c r="E68" s="3">
+        <v>32.585335999999998</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1217</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.32824170000000003</v>
+      </c>
+      <c r="E69" s="3">
+        <v>32.604358300000001</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.34519100000000003</v>
+      </c>
+      <c r="E70" s="3">
+        <v>32.570724200000001</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="C71" s="3">
+        <v>111</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.3288317</v>
+      </c>
+      <c r="E71" s="3">
+        <v>32.6091573</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="C72" s="3">
+        <v>356</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.35473060000000001</v>
+      </c>
+      <c r="E72" s="3">
+        <v>32.613000900000003</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.31239129999999998</v>
+      </c>
+      <c r="E73" s="3">
+        <v>32.581147299999998</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="3">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.31671949999999999</v>
+      </c>
+      <c r="E74" s="3">
+        <v>32.577057099999998</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C75" s="3">
+        <v>31</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.3168048</v>
+      </c>
+      <c r="E75" s="3">
+        <v>32.575690000000002</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C76" s="3">
+        <v>46</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.33514699999999997</v>
+      </c>
+      <c r="E76" s="3">
+        <v>32.597070199999997</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C77" s="3">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.32084679999999999</v>
+      </c>
+      <c r="E77" s="3">
+        <v>32.5901645</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.3238375</v>
+      </c>
+      <c r="E78" s="3">
+        <v>32.6050884</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.32431490000000002</v>
+      </c>
+      <c r="E79" s="3">
+        <v>32.604503600000001</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
